--- a/Settings Module/Defect Report/EducultureDefect_Report_22.8.2014.xlsx
+++ b/Settings Module/Defect Report/EducultureDefect_Report_22.8.2014.xlsx
@@ -268,7 +268,7 @@
     <t>edit button does not show the confirmation message.</t>
   </si>
   <si>
-    <t>when user  “edit” the course, it does not show the the confirmation message  “course updated succesfully”                                                                                                                  </t>
+    <t>when user  “edit” the course, it does not show the the confirmation message  “course updated succesfully”</t>
   </si>
   <si>
     <t>Def_Settings_16.2</t>
@@ -283,7 +283,7 @@
     <t>Def_Settings_16.3</t>
   </si>
   <si>
-    <t>In manage course module the code field accept the invalidated characters. </t>
+    <t>In manage course module the code field accept the invalidated characters.</t>
   </si>
   <si>
     <t>when user enter the code it show the invalidated code field funtionality.</t>
@@ -400,7 +400,7 @@
     <t>Def_Settings_24.2</t>
   </si>
   <si>
-    <t> “Exams” &amp; “Subject” links does  not  work correctly.</t>
+    <t>“Exams” &amp; “Subject” links does  not  work correctly.</t>
   </si>
   <si>
     <t>when user click on “Exam”&amp; “Subject” links,”manage” links does not  show the subfield funtionality.</t>
@@ -601,7 +601,7 @@
     <t>Def_Settings_37.4</t>
   </si>
   <si>
-    <t>updated funtionality not working correctiy. </t>
+    <t>updated funtionality not working correctiy.</t>
   </si>
   <si>
     <t>when user edit the category,it get edited but it unable to show &lt;“category updated sucessfully”&gt;</t>
@@ -925,7 +925,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -987,10 +987,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1110,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A2:R78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O76" activeCellId="0" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1824,7 +1820,6 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
-      <c r="N27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1836,19 +1831,19 @@
       <c r="C28" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="16" t="s">
         <v>98</v>
       </c>
       <c r="N28" s="8" t="s">
@@ -1865,16 +1860,16 @@
       <c r="C29" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="16" t="s">
         <v>104</v>
       </c>
       <c r="N29" s="8"/>
@@ -1889,16 +1884,16 @@
       <c r="C30" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N30" s="8"/>
@@ -1913,16 +1908,16 @@
       <c r="C31" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>98</v>
       </c>
       <c r="N31" s="8"/>
@@ -1937,16 +1932,16 @@
       <c r="C32" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>98</v>
       </c>
       <c r="N32" s="8"/>
@@ -1967,10 +1962,10 @@
       <c r="E33" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N33" s="8"/>
@@ -1991,10 +1986,10 @@
       <c r="E34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="8"/>
@@ -2015,10 +2010,10 @@
       <c r="E35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="16" t="s">
         <v>58</v>
       </c>
       <c r="N35" s="8"/>
@@ -2033,14 +2028,14 @@
       <c r="C36" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
       <c r="N36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="85.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2059,8 +2054,8 @@
       <c r="E37" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
       <c r="N37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="34.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2091,8 +2086,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="20"/>
-      <c r="N39" s="16"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -2107,19 +2101,19 @@
       <c r="D40" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>135</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="21" t="s">
+      <c r="H40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2142,13 +2136,13 @@
       <c r="F41" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="N41" s="21"/>
+      <c r="N41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -2169,13 +2163,13 @@
       <c r="F42" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" s="21"/>
+      <c r="G42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="58.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -2187,10 +2181,10 @@
       <c r="C43" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2205,8 +2199,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="20"/>
-      <c r="N44" s="16"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -2227,10 +2220,10 @@
       <c r="F45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="16" t="s">
         <v>58</v>
       </c>
       <c r="N45" s="8" t="s">
@@ -2253,10 +2246,10 @@
       <c r="E46" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="16" t="s">
         <v>58</v>
       </c>
       <c r="N46" s="8"/>
@@ -2277,27 +2270,26 @@
       <c r="E47" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="16" t="s">
         <v>103</v>
       </c>
       <c r="N47" s="8"/>
     </row>
     <row r="50" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="N50" s="16"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -2491,10 +2483,10 @@
       <c r="C58" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F58" s="7"/>
@@ -2512,10 +2504,10 @@
       <c r="C59" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>189</v>
       </c>
       <c r="F59" s="7"/>
@@ -2533,10 +2525,10 @@
       <c r="C60" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>192</v>
       </c>
       <c r="F60" s="7"/>
@@ -2557,7 +2549,7 @@
       <c r="D61" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2573,7 +2565,6 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
-      <c r="N62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -2585,10 +2576,10 @@
       <c r="C63" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="16" t="s">
         <v>200</v>
       </c>
       <c r="G63" s="0" t="s">
@@ -2611,10 +2602,10 @@
       <c r="C64" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F64" s="7" t="s">
@@ -2638,10 +2629,10 @@
       <c r="C65" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="16" t="s">
         <v>208</v>
       </c>
       <c r="F65" s="7" t="s">
@@ -2665,10 +2656,10 @@
       <c r="C66" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="16" t="s">
         <v>211</v>
       </c>
       <c r="F66" s="7" t="s">
@@ -2692,10 +2683,10 @@
       <c r="C67" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>215</v>
       </c>
       <c r="G67" s="0" t="s">
@@ -2716,10 +2707,10 @@
       <c r="C68" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>218</v>
       </c>
       <c r="F68" s="7" t="s">
@@ -2743,10 +2734,10 @@
       <c r="C69" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>222</v>
       </c>
       <c r="F69" s="7" t="s">
@@ -2770,13 +2761,13 @@
       <c r="C70" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="18" t="s">
         <v>227</v>
       </c>
       <c r="G70" s="7"/>
@@ -2796,7 +2787,6 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-      <c r="N71" s="16"/>
     </row>
     <row r="72" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -2808,19 +2798,19 @@
       <c r="C72" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="16" t="s">
         <v>231</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="16" t="s">
         <v>232</v>
       </c>
       <c r="N72" s="8" t="s">
@@ -2837,19 +2827,19 @@
       <c r="C73" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>236</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G73" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" s="17" t="s">
+      <c r="G73" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="16" t="s">
         <v>58</v>
       </c>
       <c r="N73" s="8"/>
@@ -2864,16 +2854,16 @@
       <c r="C74" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H74" s="16" t="s">
         <v>22</v>
       </c>
       <c r="N74" s="8"/>
@@ -2888,19 +2878,19 @@
       <c r="C75" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>243</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="17" t="s">
+      <c r="G75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="16" t="s">
         <v>58</v>
       </c>
       <c r="N75" s="8"/>
@@ -2915,30 +2905,30 @@
       <c r="C76" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G76" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="16" t="s">
         <v>58</v>
       </c>
       <c r="N76" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
